--- a/武器一覧表.xlsx
+++ b/武器一覧表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="272">
   <si>
     <t>武器モーション一覧</t>
     <rPh sb="0" eb="2">
@@ -2202,6 +2202,13 @@
   </si>
   <si>
     <t>*1.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2248,7 +2255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2540,13 +2547,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2562,59 +2604,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2650,6 +2653,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2934,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2948,40 +3005,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2990,1524 +3048,1797 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="10" t="s">
         <v>263</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="9" t="s">
         <v>126</v>
       </c>
+      <c r="I4" s="31" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="19">
         <v>15</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="7" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="I5" s="32">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="20">
         <v>10</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="9" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="12" t="s">
         <v>58</v>
       </c>
+      <c r="I6" s="33">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="20">
         <v>8</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="33">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="20">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="12" t="s">
         <v>64</v>
       </c>
+      <c r="I8" s="33">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="20">
         <v>12</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="33">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="20">
         <v>20</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="I10" s="33">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="12" t="s">
         <v>74</v>
       </c>
+      <c r="I11" s="33">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="20">
         <v>7</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="33">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="20">
         <v>10</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="33">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="20">
         <v>8</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="33">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="20">
         <v>14</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="9" t="s">
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="12" t="s">
         <v>83</v>
       </c>
+      <c r="I15" s="33">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="9" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="I16" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="20">
         <v>0</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="9" t="s">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="I17" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="20">
         <v>10</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="9" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="I18" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="33">
+      <c r="B19" s="12"/>
+      <c r="C19" s="20">
         <v>0</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="9" t="s">
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="I19" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="9" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="I20" s="33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="20">
         <v>8</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="I21" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="20">
         <v>6</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="9" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="I22" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="20">
         <v>5</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="9" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="I23" s="33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="20">
         <v>5</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="12" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="I24" s="33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="20">
         <v>4</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="9" t="s">
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="I25" s="33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="20">
         <v>0</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="12" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="I26" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="20">
         <v>5</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="9" t="s">
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+      <c r="I27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="20">
         <v>3</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="9" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="I28" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="20">
         <v>11</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="9" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="12" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="I29" s="33">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="20">
         <v>18</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="9" t="s">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="I30" s="33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="20">
         <v>8</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="9" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="I31" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="20">
         <v>3</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="9" t="s">
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="I32" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="20">
         <v>0</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="9" t="s">
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="I33" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="20">
         <v>2</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="9" t="s">
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="I34" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="20">
         <v>0</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="9" t="s">
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="12" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="I35" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="20">
         <v>20</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="9" t="s">
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="12" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="I36" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="9" t="s">
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="12" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="I37" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="20">
         <v>0</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="9" t="s">
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="I38" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="20">
         <v>18</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="20">
         <v>8</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="20">
         <v>8</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="20">
         <v>0</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="9" t="s">
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="12" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="I42" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="20">
         <v>5</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="9" t="s">
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="12" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="I43" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="9" t="s">
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="12" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="I44" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="20">
         <v>8</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="20">
         <v>25</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="9" t="s">
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="12" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="I46" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="20">
         <v>5</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="20">
         <v>100</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="9" t="s">
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="I48" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="20">
         <v>0</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="9" t="s">
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="I49" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="9" t="s">
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
+      <c r="I50" s="33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="9" t="s">
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="12" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
+      <c r="I51" s="33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="20">
         <v>9</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="20">
         <v>18</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="9" t="s">
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="12" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+      <c r="I53" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="20">
         <v>33</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="9" t="s">
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="12" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="I54" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="9" t="s">
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="12" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="I55" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
       <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="I56" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="20">
         <v>30</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="20">
         <v>10</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="20">
         <v>0</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="20">
         <v>4</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="20">
         <v>5</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="9" t="s">
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="12" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="I61" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
       <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="I62" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
+      <c r="I63" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="20">
         <v>12</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="9" t="s">
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="12" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="I64" s="33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="20">
         <v>10</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="9" t="s">
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="12" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
+      <c r="I65" s="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="20">
         <v>3</v>
       </c>
-      <c r="D66" s="29" t="s">
+      <c r="D66" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="9" t="s">
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="12" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+      <c r="I66" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="20">
         <v>5</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="9" t="s">
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="12" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+      <c r="I67" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="20">
         <v>3</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="20">
         <v>8</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C70" s="33" t="s">
+      <c r="C70" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="9" t="s">
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="12" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+      <c r="I70" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="33">
+      <c r="C71" s="20">
         <v>0</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="9" t="s">
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="12" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
+      <c r="I71" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="20">
         <v>15</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="20">
         <v>0</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="9" t="s">
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="12" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="8" t="s">
+      <c r="I73" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="20">
         <v>0</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="9" t="s">
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="12" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="I74" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C75" s="34">
+      <c r="C75" s="21">
         <v>0</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="11" t="s">
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="14" t="s">
         <v>262</v>
+      </c>
+      <c r="I75" s="34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E59:G59"/>
     <mergeCell ref="E64:G64"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
@@ -4523,63 +4854,6 @@
     <mergeCell ref="E66:G66"/>
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/武器一覧表.xlsx
+++ b/武器一覧表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s162145\Desktop\卒業制作\Kaomoji_Fight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s152025\Documents\3年\卒業制作\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2655,33 +2655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2706,8 +2679,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2991,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3005,41 +3005,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3054,15 +3054,15 @@
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="22" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3079,15 +3079,15 @@
       <c r="D5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="23">
         <v>25</v>
       </c>
     </row>
@@ -3104,15 +3104,15 @@
       <c r="D6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="24">
         <v>57</v>
       </c>
     </row>
@@ -3129,13 +3129,13 @@
       <c r="D7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="33">
+      <c r="I7" s="24">
         <v>22</v>
       </c>
     </row>
@@ -3152,15 +3152,15 @@
       <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="24">
         <v>6</v>
       </c>
     </row>
@@ -3177,13 +3177,13 @@
       <c r="D9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="33">
+      <c r="I9" s="24">
         <v>13</v>
       </c>
     </row>
@@ -3200,15 +3200,15 @@
       <c r="D10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="24">
         <v>42</v>
       </c>
     </row>
@@ -3225,15 +3225,15 @@
       <c r="D11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="24">
         <v>14</v>
       </c>
     </row>
@@ -3250,13 +3250,13 @@
       <c r="D12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="33">
+      <c r="I12" s="24">
         <v>27</v>
       </c>
     </row>
@@ -3273,13 +3273,13 @@
       <c r="D13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="33">
+      <c r="I13" s="24">
         <v>13</v>
       </c>
     </row>
@@ -3296,13 +3296,13 @@
       <c r="D14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="33">
+      <c r="I14" s="24">
         <v>12</v>
       </c>
     </row>
@@ -3319,15 +3319,15 @@
       <c r="D15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="24">
         <v>6</v>
       </c>
     </row>
@@ -3344,15 +3344,15 @@
       <c r="D16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="24">
         <v>38</v>
       </c>
     </row>
@@ -3369,15 +3369,15 @@
       <c r="D17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="24">
         <v>25</v>
       </c>
     </row>
@@ -3394,15 +3394,15 @@
       <c r="D18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="24">
         <v>6</v>
       </c>
     </row>
@@ -3417,15 +3417,15 @@
       <c r="D19" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="24">
         <v>14</v>
       </c>
     </row>
@@ -3442,15 +3442,15 @@
       <c r="D20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="24">
         <v>52</v>
       </c>
     </row>
@@ -3467,15 +3467,15 @@
       <c r="D21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="24">
         <v>8</v>
       </c>
     </row>
@@ -3492,15 +3492,15 @@
       <c r="D22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
       <c r="H22" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="24">
         <v>7</v>
       </c>
     </row>
@@ -3517,15 +3517,15 @@
       <c r="D23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="24">
         <v>44</v>
       </c>
     </row>
@@ -3542,15 +3542,15 @@
       <c r="D24" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
       <c r="H24" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="24">
         <v>46</v>
       </c>
     </row>
@@ -3567,15 +3567,15 @@
       <c r="D25" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="24">
         <v>43</v>
       </c>
     </row>
@@ -3592,15 +3592,15 @@
       <c r="D26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="24">
         <v>38</v>
       </c>
     </row>
@@ -3617,15 +3617,15 @@
       <c r="D27" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
       <c r="H27" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="24">
         <v>0</v>
       </c>
     </row>
@@ -3642,15 +3642,15 @@
       <c r="D28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
       <c r="H28" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="24">
         <v>5</v>
       </c>
     </row>
@@ -3667,15 +3667,15 @@
       <c r="D29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
       <c r="H29" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="24">
         <v>59</v>
       </c>
     </row>
@@ -3692,15 +3692,15 @@
       <c r="D30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
       <c r="H30" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="24">
         <v>37</v>
       </c>
     </row>
@@ -3717,15 +3717,15 @@
       <c r="D31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3742,15 +3742,15 @@
       <c r="D32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
       <c r="H32" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3767,15 +3767,15 @@
       <c r="D33" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3792,15 +3792,15 @@
       <c r="D34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
       <c r="H34" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="24">
         <v>2</v>
       </c>
     </row>
@@ -3817,15 +3817,15 @@
       <c r="D35" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
       <c r="H35" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="24">
         <v>38</v>
       </c>
     </row>
@@ -3842,15 +3842,15 @@
       <c r="D36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
       <c r="H36" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="24">
         <v>13</v>
       </c>
     </row>
@@ -3867,15 +3867,15 @@
       <c r="D37" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="24">
         <v>3</v>
       </c>
     </row>
@@ -3892,15 +3892,15 @@
       <c r="D38" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
       <c r="H38" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="24">
         <v>9</v>
       </c>
     </row>
@@ -3917,13 +3917,13 @@
       <c r="D39" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="33">
+      <c r="I39" s="24">
         <v>28</v>
       </c>
     </row>
@@ -3940,13 +3940,13 @@
       <c r="D40" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="33">
+      <c r="I40" s="24">
         <v>38</v>
       </c>
     </row>
@@ -3963,13 +3963,13 @@
       <c r="D41" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
       <c r="H41" s="12"/>
-      <c r="I41" s="33">
+      <c r="I41" s="24">
         <v>13</v>
       </c>
     </row>
@@ -3986,15 +3986,15 @@
       <c r="D42" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
       <c r="H42" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="24">
         <v>3</v>
       </c>
     </row>
@@ -4011,15 +4011,15 @@
       <c r="D43" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="24">
         <v>9</v>
       </c>
     </row>
@@ -4036,15 +4036,15 @@
       <c r="D44" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
       <c r="H44" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="24">
         <v>28</v>
       </c>
     </row>
@@ -4061,13 +4061,13 @@
       <c r="D45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
       <c r="H45" s="12"/>
-      <c r="I45" s="33">
+      <c r="I45" s="24">
         <v>8</v>
       </c>
     </row>
@@ -4084,15 +4084,15 @@
       <c r="D46" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
       <c r="H46" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4109,13 +4109,13 @@
       <c r="D47" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="33">
+      <c r="I47" s="24">
         <v>12</v>
       </c>
     </row>
@@ -4132,15 +4132,15 @@
       <c r="D48" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
       <c r="H48" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="24">
         <v>5</v>
       </c>
     </row>
@@ -4157,15 +4157,15 @@
       <c r="D49" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
       <c r="H49" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="24">
         <v>23</v>
       </c>
     </row>
@@ -4182,15 +4182,15 @@
       <c r="D50" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
       <c r="H50" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="24">
         <v>75</v>
       </c>
     </row>
@@ -4207,15 +4207,15 @@
       <c r="D51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
       <c r="H51" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="24">
         <v>37</v>
       </c>
     </row>
@@ -4232,13 +4232,13 @@
       <c r="D52" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="33">
+      <c r="I52" s="24">
         <v>1</v>
       </c>
     </row>
@@ -4255,15 +4255,15 @@
       <c r="D53" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
       <c r="H53" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="24">
         <v>1</v>
       </c>
     </row>
@@ -4280,15 +4280,15 @@
       <c r="D54" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
       <c r="H54" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="24">
         <v>2</v>
       </c>
     </row>
@@ -4305,15 +4305,15 @@
       <c r="D55" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
       <c r="H55" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="24">
         <v>5</v>
       </c>
     </row>
@@ -4326,11 +4326,11 @@
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="13"/>
-      <c r="I56" s="33">
+      <c r="I56" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4347,13 +4347,13 @@
       <c r="D57" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
       <c r="H57" s="12"/>
-      <c r="I57" s="33">
+      <c r="I57" s="24">
         <v>50</v>
       </c>
     </row>
@@ -4370,13 +4370,13 @@
       <c r="D58" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="26" t="s">
+      <c r="E58" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="12"/>
-      <c r="I58" s="33">
+      <c r="I58" s="24">
         <v>3</v>
       </c>
     </row>
@@ -4393,13 +4393,13 @@
       <c r="D59" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
       <c r="H59" s="12"/>
-      <c r="I59" s="33">
+      <c r="I59" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4416,13 +4416,13 @@
       <c r="D60" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
       <c r="H60" s="12"/>
-      <c r="I60" s="33">
+      <c r="I60" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4439,15 +4439,15 @@
       <c r="D61" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="24">
         <v>21</v>
       </c>
     </row>
@@ -4460,11 +4460,11 @@
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="13"/>
-      <c r="I62" s="33">
+      <c r="I62" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4477,11 +4477,11 @@
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="33">
+      <c r="I63" s="24">
         <v>1</v>
       </c>
     </row>
@@ -4493,20 +4493,20 @@
         <v>232</v>
       </c>
       <c r="C64" s="20">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D64" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
       <c r="H64" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="24">
         <v>45</v>
       </c>
     </row>
@@ -4523,15 +4523,15 @@
       <c r="D65" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
       <c r="H65" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="24">
         <v>16</v>
       </c>
     </row>
@@ -4548,15 +4548,15 @@
       <c r="D66" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
       <c r="H66" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="24">
         <v>8</v>
       </c>
     </row>
@@ -4573,15 +4573,15 @@
       <c r="D67" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="24">
         <v>1</v>
       </c>
     </row>
@@ -4598,13 +4598,13 @@
       <c r="D68" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="26" t="s">
+      <c r="E68" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="12"/>
-      <c r="I68" s="33">
+      <c r="I68" s="24">
         <v>2</v>
       </c>
     </row>
@@ -4621,13 +4621,13 @@
       <c r="D69" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
       <c r="H69" s="12"/>
-      <c r="I69" s="33">
+      <c r="I69" s="24">
         <v>1</v>
       </c>
     </row>
@@ -4644,15 +4644,15 @@
       <c r="D70" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
       <c r="H70" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="24">
         <v>8</v>
       </c>
     </row>
@@ -4669,15 +4669,15 @@
       <c r="D71" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="E71" s="26" t="s">
+      <c r="E71" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="24">
         <v>3</v>
       </c>
     </row>
@@ -4694,13 +4694,13 @@
       <c r="D72" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="26" t="s">
+      <c r="E72" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
       <c r="H72" s="12"/>
-      <c r="I72" s="33">
+      <c r="I72" s="24">
         <v>0</v>
       </c>
     </row>
@@ -4717,15 +4717,15 @@
       <c r="D73" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E73" s="26" t="s">
+      <c r="E73" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
       <c r="H73" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="24">
         <v>2</v>
       </c>
     </row>
@@ -4742,15 +4742,15 @@
       <c r="D74" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
       <c r="H74" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="24">
         <v>1</v>
       </c>
     </row>
@@ -4767,20 +4767,77 @@
       <c r="D75" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
       <c r="H75" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="I75" s="34">
+      <c r="I75" s="25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E7:G7"/>
@@ -4797,63 +4854,6 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E52:G52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/武器一覧表.xlsx
+++ b/武器一覧表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s152025\Documents\3年\卒業制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s162145\Desktop\卒業制作\Kaomoji_Fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="276">
   <si>
     <t>武器モーション一覧</t>
     <rPh sb="0" eb="2">
@@ -2209,6 +2209,22 @@
     <rPh sb="0" eb="3">
       <t>モジスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EffectPath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets\Plugins\Effect\Almgp_particle_vol_1\prefabs\simple\shochWave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets\Plugins\Effect\Almgp_particle_vol_1\prefabs\simple\flare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets\Plugins\Effect\Particle Ribbon by Moonflower Carnivore\Prefabs\Spiral_01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2667,6 +2683,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2693,21 +2724,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2991,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:I64"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3002,44 +3018,45 @@
     <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.6328125" customWidth="1"/>
     <col min="8" max="8" width="92.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3054,16 +3071,19 @@
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="9" t="s">
         <v>126</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>271</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3079,11 +3099,11 @@
       <c r="D5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="11" t="s">
         <v>54</v>
       </c>
@@ -3104,11 +3124,11 @@
       <c r="D6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="12" t="s">
         <v>58</v>
       </c>
@@ -3129,11 +3149,11 @@
       <c r="D7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="12"/>
       <c r="I7" s="24">
         <v>22</v>
@@ -3152,11 +3172,11 @@
       <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="12" t="s">
         <v>64</v>
       </c>
@@ -3177,11 +3197,11 @@
       <c r="D9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="12"/>
       <c r="I9" s="24">
         <v>13</v>
@@ -3200,11 +3220,11 @@
       <c r="D10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="12" t="s">
         <v>70</v>
       </c>
@@ -3225,11 +3245,11 @@
       <c r="D11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="12" t="s">
         <v>74</v>
       </c>
@@ -3250,11 +3270,11 @@
       <c r="D12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="12"/>
       <c r="I12" s="24">
         <v>27</v>
@@ -3273,11 +3293,11 @@
       <c r="D13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="12"/>
       <c r="I13" s="24">
         <v>13</v>
@@ -3296,11 +3316,11 @@
       <c r="D14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="12"/>
       <c r="I14" s="24">
         <v>12</v>
@@ -3319,11 +3339,11 @@
       <c r="D15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="12" t="s">
         <v>83</v>
       </c>
@@ -3344,11 +3364,11 @@
       <c r="D16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="12" t="s">
         <v>86</v>
       </c>
@@ -3356,7 +3376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -3369,11 +3389,11 @@
       <c r="D17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="12" t="s">
         <v>90</v>
       </c>
@@ -3381,7 +3401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -3394,19 +3414,22 @@
       <c r="D18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="12" t="s">
         <v>121</v>
       </c>
       <c r="I18" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -3417,11 +3440,11 @@
       <c r="D19" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="12" t="s">
         <v>123</v>
       </c>
@@ -3429,7 +3452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -3442,11 +3465,11 @@
       <c r="D20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="12" t="s">
         <v>127</v>
       </c>
@@ -3454,7 +3477,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -3467,11 +3490,11 @@
       <c r="D21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="12" t="s">
         <v>130</v>
       </c>
@@ -3479,7 +3502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
@@ -3492,11 +3515,11 @@
       <c r="D22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="12" t="s">
         <v>133</v>
       </c>
@@ -3504,7 +3527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
@@ -3517,11 +3540,11 @@
       <c r="D23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="12" t="s">
         <v>136</v>
       </c>
@@ -3529,7 +3552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
@@ -3542,11 +3565,11 @@
       <c r="D24" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="12" t="s">
         <v>140</v>
       </c>
@@ -3554,7 +3577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -3567,11 +3590,11 @@
       <c r="D25" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="12" t="s">
         <v>143</v>
       </c>
@@ -3579,7 +3602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -3592,11 +3615,11 @@
       <c r="D26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="12" t="s">
         <v>146</v>
       </c>
@@ -3604,7 +3627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3617,11 +3640,11 @@
       <c r="D27" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="12" t="s">
         <v>148</v>
       </c>
@@ -3629,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
@@ -3642,11 +3665,11 @@
       <c r="D28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="12" t="s">
         <v>151</v>
       </c>
@@ -3654,7 +3677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -3667,11 +3690,11 @@
       <c r="D29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="12" t="s">
         <v>154</v>
       </c>
@@ -3679,7 +3702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -3692,11 +3715,11 @@
       <c r="D30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="12" t="s">
         <v>157</v>
       </c>
@@ -3704,7 +3727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
@@ -3717,11 +3740,11 @@
       <c r="D31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="12" t="s">
         <v>160</v>
       </c>
@@ -3729,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -3742,11 +3765,11 @@
       <c r="D32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="12" t="s">
         <v>163</v>
       </c>
@@ -3754,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -3767,11 +3790,11 @@
       <c r="D33" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="12" t="s">
         <v>165</v>
       </c>
@@ -3779,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -3792,11 +3815,11 @@
       <c r="D34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="12" t="s">
         <v>167</v>
       </c>
@@ -3804,7 +3827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -3817,11 +3840,11 @@
       <c r="D35" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="12" t="s">
         <v>170</v>
       </c>
@@ -3829,7 +3852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -3842,19 +3865,22 @@
       <c r="D36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="12" t="s">
         <v>173</v>
       </c>
       <c r="I36" s="24">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -3867,11 +3893,11 @@
       <c r="D37" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="12" t="s">
         <v>175</v>
       </c>
@@ -3879,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
@@ -3892,11 +3918,11 @@
       <c r="D38" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="12" t="s">
         <v>178</v>
       </c>
@@ -3904,7 +3930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -3917,17 +3943,17 @@
       <c r="D39" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="12"/>
       <c r="I39" s="24">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -3940,17 +3966,17 @@
       <c r="D40" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="12"/>
       <c r="I40" s="24">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
@@ -3963,17 +3989,17 @@
       <c r="D41" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="12"/>
       <c r="I41" s="24">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
@@ -3986,11 +4012,11 @@
       <c r="D42" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="12" t="s">
         <v>187</v>
       </c>
@@ -3998,7 +4024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -4011,19 +4037,22 @@
       <c r="D43" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="12" t="s">
         <v>190</v>
       </c>
       <c r="I43" s="24">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
@@ -4036,11 +4065,11 @@
       <c r="D44" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="12" t="s">
         <v>192</v>
       </c>
@@ -4048,7 +4077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
@@ -4061,17 +4090,17 @@
       <c r="D45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="12"/>
       <c r="I45" s="24">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
@@ -4084,11 +4113,11 @@
       <c r="D46" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="12" t="s">
         <v>196</v>
       </c>
@@ -4096,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
@@ -4109,17 +4138,17 @@
       <c r="D47" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="12"/>
       <c r="I47" s="24">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
@@ -4132,11 +4161,11 @@
       <c r="D48" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="12" t="s">
         <v>202</v>
       </c>
@@ -4157,11 +4186,11 @@
       <c r="D49" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="12" t="s">
         <v>205</v>
       </c>
@@ -4182,11 +4211,11 @@
       <c r="D50" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="12" t="s">
         <v>207</v>
       </c>
@@ -4207,11 +4236,11 @@
       <c r="D51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="12" t="s">
         <v>208</v>
       </c>
@@ -4232,11 +4261,11 @@
       <c r="D52" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="12"/>
       <c r="I52" s="24">
         <v>1</v>
@@ -4255,11 +4284,11 @@
       <c r="D53" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="12" t="s">
         <v>213</v>
       </c>
@@ -4280,11 +4309,11 @@
       <c r="D54" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="12" t="s">
         <v>216</v>
       </c>
@@ -4305,11 +4334,11 @@
       <c r="D55" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="12" t="s">
         <v>220</v>
       </c>
@@ -4326,9 +4355,9 @@
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
       <c r="H56" s="13"/>
       <c r="I56" s="24">
         <v>0</v>
@@ -4347,11 +4376,11 @@
       <c r="D57" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
       <c r="H57" s="12"/>
       <c r="I57" s="24">
         <v>50</v>
@@ -4370,11 +4399,11 @@
       <c r="D58" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
       <c r="H58" s="12"/>
       <c r="I58" s="24">
         <v>3</v>
@@ -4393,11 +4422,11 @@
       <c r="D59" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
       <c r="H59" s="12"/>
       <c r="I59" s="24">
         <v>0</v>
@@ -4416,11 +4445,11 @@
       <c r="D60" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
       <c r="H60" s="12"/>
       <c r="I60" s="24">
         <v>0</v>
@@ -4439,11 +4468,11 @@
       <c r="D61" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
       <c r="H61" s="12" t="s">
         <v>231</v>
       </c>
@@ -4460,9 +4489,9 @@
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
       <c r="H62" s="13"/>
       <c r="I62" s="24">
         <v>0</v>
@@ -4477,9 +4506,9 @@
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="13"/>
       <c r="I63" s="24">
         <v>1</v>
@@ -4498,11 +4527,11 @@
       <c r="D64" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
       <c r="H64" s="12" t="s">
         <v>233</v>
       </c>
@@ -4523,11 +4552,11 @@
       <c r="D65" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="12" t="s">
         <v>234</v>
       </c>
@@ -4548,11 +4577,11 @@
       <c r="D66" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E66" s="35" t="s">
+      <c r="E66" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="12" t="s">
         <v>239</v>
       </c>
@@ -4573,11 +4602,11 @@
       <c r="D67" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E67" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
       <c r="H67" s="12" t="s">
         <v>242</v>
       </c>
@@ -4598,11 +4627,11 @@
       <c r="D68" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="35" t="s">
+      <c r="E68" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
       <c r="H68" s="12"/>
       <c r="I68" s="24">
         <v>2</v>
@@ -4621,11 +4650,11 @@
       <c r="D69" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
       <c r="H69" s="12"/>
       <c r="I69" s="24">
         <v>1</v>
@@ -4644,11 +4673,11 @@
       <c r="D70" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
       <c r="H70" s="12" t="s">
         <v>248</v>
       </c>
@@ -4669,11 +4698,11 @@
       <c r="D71" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
       <c r="H71" s="12" t="s">
         <v>250</v>
       </c>
@@ -4694,11 +4723,11 @@
       <c r="D72" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
       <c r="H72" s="12"/>
       <c r="I72" s="24">
         <v>0</v>
@@ -4717,11 +4746,11 @@
       <c r="D73" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
       <c r="H73" s="12" t="s">
         <v>256</v>
       </c>
@@ -4742,11 +4771,11 @@
       <c r="D74" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
       <c r="H74" s="12" t="s">
         <v>259</v>
       </c>
@@ -4767,11 +4796,11 @@
       <c r="D75" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
       <c r="H75" s="14" t="s">
         <v>262</v>
       </c>
@@ -4781,6 +4810,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E58:G58"/>
     <mergeCell ref="E64:G64"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
@@ -4797,63 +4883,6 @@
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
